--- a/Test files/DD_Summary 2 col 5 sheme.xlsx
+++ b/Test files/DD_Summary 2 col 5 sheme.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>№ точки</t>
   </si>
@@ -26,7 +26,13 @@
     <t>x1F</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>Rmin</t>
@@ -382,13 +388,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +428,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,31 +446,37 @@
         <v>0.556</v>
       </c>
       <c r="D2">
+        <v>0.36</v>
+      </c>
+      <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
         <v>1.189791249154271</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.4379582498308541</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1.546728623900552</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.2002004008016032</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.5098560912378058</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -469,31 +487,37 @@
         <v>0.556</v>
       </c>
       <c r="D3">
+        <v>0.36</v>
+      </c>
+      <c r="E3">
         <v>0.2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0.16</v>
+      </c>
+      <c r="G3">
         <v>1.189791249154271</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.4379582498308541</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.546728623900552</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.2002004008016032</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.5098560912378058</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -504,31 +528,37 @@
         <v>0.556</v>
       </c>
       <c r="D4">
+        <v>0.36</v>
+      </c>
+      <c r="E4">
         <v>0.2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0.16</v>
+      </c>
+      <c r="G4">
         <v>1.189791249154271</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.4379582498308541</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1.546728623900552</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.2002004008016032</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.5098560912378058</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -539,31 +569,37 @@
         <v>0.556</v>
       </c>
       <c r="D5">
+        <v>0.36</v>
+      </c>
+      <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0.16</v>
+      </c>
+      <c r="G5">
         <v>1.189791249154271</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.4379582498308541</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1.546728623900552</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.2002004008016032</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.5098560912378058</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -574,31 +610,37 @@
         <v>0.385</v>
       </c>
       <c r="D6">
+        <v>0.52</v>
+      </c>
+      <c r="E6">
         <v>0.2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0.32</v>
+      </c>
+      <c r="G6">
         <v>1.761203406236239</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.5522406812472478</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2.289564428107111</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.2000801603206413</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.6581765781607494</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -609,31 +651,37 @@
         <v>0.385</v>
       </c>
       <c r="D7">
+        <v>0.52</v>
+      </c>
+      <c r="E7">
         <v>0.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>0.32</v>
+      </c>
+      <c r="G7">
         <v>1.761203406236239</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.5522406812472478</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>2.289564428107111</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.2000801603206413</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.6581765781607494</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -644,31 +692,37 @@
         <v>0.385</v>
       </c>
       <c r="D8">
+        <v>0.52</v>
+      </c>
+      <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>0.32</v>
+      </c>
+      <c r="G8">
         <v>1.761203406236239</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.5522406812472478</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>2.289564428107111</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.2000801603206413</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.6581765781607494</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -679,31 +733,37 @@
         <v>0.385</v>
       </c>
       <c r="D9">
+        <v>0.52</v>
+      </c>
+      <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>0.32</v>
+      </c>
+      <c r="G9">
         <v>1.761203406236239</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.5522406812472478</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2.289564428107111</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.2000801603206413</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.6581765781607494</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -714,31 +774,37 @@
         <v>0.294</v>
       </c>
       <c r="D10">
+        <v>0.68</v>
+      </c>
+      <c r="E10">
         <v>0.2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>0.48</v>
+      </c>
+      <c r="G10">
         <v>2.353173645072339</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.6706347290144677</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>3.05912573859404</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.1996392785571142</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.8103609340255278</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -749,31 +815,37 @@
         <v>0.294</v>
       </c>
       <c r="D11">
+        <v>0.68</v>
+      </c>
+      <c r="E11">
         <v>0.2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>0.48</v>
+      </c>
+      <c r="G11">
         <v>2.353173645072339</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.6706347290144677</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>3.05912573859404</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.1996392785571142</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.8103609340255278</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -784,31 +856,37 @@
         <v>0.294</v>
       </c>
       <c r="D12">
+        <v>0.68</v>
+      </c>
+      <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>0.48</v>
+      </c>
+      <c r="G12">
         <v>2.353173645072339</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.6706347290144677</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>3.05912573859404</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.1996392785571142</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.8103609340255278</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -819,31 +897,37 @@
         <v>0.294</v>
       </c>
       <c r="D13">
+        <v>0.68</v>
+      </c>
+      <c r="E13">
         <v>0.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <v>0.48</v>
+      </c>
+      <c r="G13">
         <v>2.353173645072339</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.6706347290144677</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>3.05912573859404</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.1996392785571142</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.8103609340255278</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -854,31 +938,37 @@
         <v>0.238</v>
       </c>
       <c r="D14">
+        <v>0.84</v>
+      </c>
+      <c r="E14">
         <v>0.2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="G14">
         <v>2.951460085569067</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.7902920171138135</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>3.836898111239787</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0.1994789579158316</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.964859394775167</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -889,31 +979,37 @@
         <v>0.238</v>
       </c>
       <c r="D15">
+        <v>0.84</v>
+      </c>
+      <c r="E15">
         <v>0.2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="G15">
         <v>2.951460085569067</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.7902920171138135</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>3.836898111239787</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.1994789579158316</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.964859394775167</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -924,31 +1020,37 @@
         <v>0.238</v>
       </c>
       <c r="D16">
+        <v>0.84</v>
+      </c>
+      <c r="E16">
         <v>0.2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="G16">
         <v>2.951460085569067</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.7902920171138135</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>3.836898111239787</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.1994789579158316</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.964859394775167</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -959,31 +1061,37 @@
         <v>0.238</v>
       </c>
       <c r="D17">
+        <v>0.84</v>
+      </c>
+      <c r="E17">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="G17">
         <v>2.951460085569067</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.7902920171138135</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>3.836898111239787</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.1994789579158316</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.964859394775167</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -994,31 +1102,37 @@
         <v>0.769</v>
       </c>
       <c r="D18">
+        <v>0.52</v>
+      </c>
+      <c r="E18">
         <v>0.4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <v>0.12</v>
+      </c>
+      <c r="G18">
         <v>0.8386530811151565</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.7354612324460627</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1.090249005449703</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0.4001603206412826</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.8364347122408754</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1029,31 +1143,37 @@
         <v>0.769</v>
       </c>
       <c r="D19">
+        <v>0.52</v>
+      </c>
+      <c r="E19">
         <v>0.4</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>0.12</v>
+      </c>
+      <c r="G19">
         <v>0.8386530811151565</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.7354612324460627</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1.090249005449703</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.4001603206412826</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.8364347122408754</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1064,31 +1184,37 @@
         <v>0.769</v>
       </c>
       <c r="D20">
+        <v>0.52</v>
+      </c>
+      <c r="E20">
         <v>0.4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <v>0.12</v>
+      </c>
+      <c r="G20">
         <v>0.8386530811151565</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.7354612324460627</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1.090249005449703</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>0.4001603206412826</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.8364347122408754</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1099,31 +1225,37 @@
         <v>0.769</v>
       </c>
       <c r="D21">
+        <v>0.52</v>
+      </c>
+      <c r="E21">
         <v>0.4</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <v>0.12</v>
+      </c>
+      <c r="G21">
         <v>0.8386530811151565</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>0.7354612324460627</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1.090249005449703</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>0.4001603206412826</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.8364347122408754</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1134,31 +1266,37 @@
         <v>0.625</v>
       </c>
       <c r="D22">
+        <v>0.64</v>
+      </c>
+      <c r="E22">
         <v>0.4</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <v>0.24</v>
+      </c>
+      <c r="G22">
         <v>1.050778695465046</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.8203114781860187</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1.36601230410456</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>0.4001603206412825</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.9467842422517007</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1169,31 +1307,37 @@
         <v>0.625</v>
       </c>
       <c r="D23">
+        <v>0.64</v>
+      </c>
+      <c r="E23">
         <v>0.4</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <v>0.24</v>
+      </c>
+      <c r="G23">
         <v>1.050778695465046</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>0.8203114781860187</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1.36601230410456</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>0.4001603206412825</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.9467842422517007</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1204,31 +1348,37 @@
         <v>0.625</v>
       </c>
       <c r="D24">
+        <v>0.64</v>
+      </c>
+      <c r="E24">
         <v>0.4</v>
       </c>
-      <c r="E24">
+      <c r="F24">
+        <v>0.24</v>
+      </c>
+      <c r="G24">
         <v>1.050778695465046</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.8203114781860187</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1.36601230410456</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>0.4001603206412825</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.9467842422517007</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1239,31 +1389,37 @@
         <v>0.625</v>
       </c>
       <c r="D25">
+        <v>0.64</v>
+      </c>
+      <c r="E25">
         <v>0.4</v>
       </c>
-      <c r="E25">
+      <c r="F25">
+        <v>0.24</v>
+      </c>
+      <c r="G25">
         <v>1.050778695465046</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>0.8203114781860187</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1.36601230410456</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>0.4001603206412825</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.9467842422517007</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1274,31 +1430,37 @@
         <v>0.526</v>
       </c>
       <c r="D26">
+        <v>0.76</v>
+      </c>
+      <c r="E26">
         <v>0.4</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <v>0.36</v>
+      </c>
+      <c r="G26">
         <v>1.261961470917405</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.9047845883669622</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1.640549912192627</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>0.3997995991983968</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>1.055690796557974</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1309,31 +1471,37 @@
         <v>0.526</v>
       </c>
       <c r="D27">
+        <v>0.76</v>
+      </c>
+      <c r="E27">
         <v>0.4</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <v>0.36</v>
+      </c>
+      <c r="G27">
         <v>1.261961470917405</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.9047845883669622</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>1.640549912192627</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>0.3997995991983968</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>1.055690796557974</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1344,31 +1512,37 @@
         <v>0.526</v>
       </c>
       <c r="D28">
+        <v>0.76</v>
+      </c>
+      <c r="E28">
         <v>0.4</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <v>0.36</v>
+      </c>
+      <c r="G28">
         <v>1.261961470917405</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>0.9047845883669622</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>1.640549912192627</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.3997995991983968</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>1.055690796557974</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1379,31 +1553,37 @@
         <v>0.526</v>
       </c>
       <c r="D29">
+        <v>0.76</v>
+      </c>
+      <c r="E29">
         <v>0.4</v>
       </c>
-      <c r="E29">
+      <c r="F29">
+        <v>0.36</v>
+      </c>
+      <c r="G29">
         <v>1.261961470917405</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.9047845883669622</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>1.640549912192627</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0.3997995991983968</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>1.055690796557974</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1414,31 +1594,37 @@
         <v>0.455</v>
       </c>
       <c r="D30">
+        <v>0.88</v>
+      </c>
+      <c r="E30">
         <v>0.4</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <v>0.48</v>
+      </c>
+      <c r="G30">
         <v>1.472705106998987</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.9890820427995948</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>1.914516639098683</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0.4003206412825652</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>1.166741169992692</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1449,31 +1635,37 @@
         <v>0.455</v>
       </c>
       <c r="D31">
+        <v>0.88</v>
+      </c>
+      <c r="E31">
         <v>0.4</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <v>0.48</v>
+      </c>
+      <c r="G31">
         <v>1.472705106998987</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.9890820427995948</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>1.914516639098683</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>0.4003206412825652</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>1.166741169992692</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1484,31 +1676,37 @@
         <v>0.455</v>
       </c>
       <c r="D32">
+        <v>0.88</v>
+      </c>
+      <c r="E32">
         <v>0.4</v>
       </c>
-      <c r="E32">
+      <c r="F32">
+        <v>0.48</v>
+      </c>
+      <c r="G32">
         <v>1.472705106998987</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.9890820427995948</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>1.914516639098683</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.4003206412825652</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>1.166741169992692</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1519,31 +1717,37 @@
         <v>0.455</v>
       </c>
       <c r="D33">
+        <v>0.88</v>
+      </c>
+      <c r="E33">
         <v>0.4</v>
       </c>
-      <c r="E33">
+      <c r="F33">
+        <v>0.48</v>
+      </c>
+      <c r="G33">
         <v>1.472705106998987</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>0.9890820427995948</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>1.914516639098683</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.4003206412825652</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>1.166741169992692</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1554,31 +1758,37 @@
         <v>0.882</v>
       </c>
       <c r="D34">
+        <v>0.68</v>
+      </c>
+      <c r="E34">
         <v>0.6</v>
       </c>
-      <c r="E34">
+      <c r="F34">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="G34">
         <v>0.7119046219963149</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>1.027142773197789</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.9254760085952094</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>0.6002805611222446</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>1.155825818866952</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1589,31 +1799,37 @@
         <v>0.882</v>
       </c>
       <c r="D35">
+        <v>0.68</v>
+      </c>
+      <c r="E35">
         <v>0.6</v>
       </c>
-      <c r="E35">
+      <c r="F35">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="G35">
         <v>0.7119046219963149</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>1.027142773197789</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.9254760085952094</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.6002805611222446</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>1.155825818866952</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1624,31 +1840,37 @@
         <v>0.882</v>
       </c>
       <c r="D36">
+        <v>0.68</v>
+      </c>
+      <c r="E36">
         <v>0.6</v>
       </c>
-      <c r="E36">
+      <c r="F36">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="G36">
         <v>0.7119046219963149</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>1.027142773197789</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.9254760085952094</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>0.6002805611222446</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>1.155825818866952</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1659,31 +1881,37 @@
         <v>0.882</v>
       </c>
       <c r="D37">
+        <v>0.68</v>
+      </c>
+      <c r="E37">
         <v>0.6</v>
       </c>
-      <c r="E37">
+      <c r="F37">
+        <v>0.08000000000000007</v>
+      </c>
+      <c r="G37">
         <v>0.7119046219963149</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>1.027142773197789</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.9254760085952094</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.6002805611222446</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>1.155825818866952</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1694,31 +1922,37 @@
         <v>0.789</v>
       </c>
       <c r="D38">
+        <v>0.76</v>
+      </c>
+      <c r="E38">
         <v>0.6</v>
       </c>
-      <c r="E38">
+      <c r="F38">
+        <v>0.16</v>
+      </c>
+      <c r="G38">
         <v>0.8144861470896098</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>1.088691688253766</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>1.058831991216493</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.6000801603206414</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>1.235464231362458</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1729,31 +1963,37 @@
         <v>0.789</v>
       </c>
       <c r="D39">
+        <v>0.76</v>
+      </c>
+      <c r="E39">
         <v>0.6</v>
       </c>
-      <c r="E39">
+      <c r="F39">
+        <v>0.16</v>
+      </c>
+      <c r="G39">
         <v>0.8144861470896098</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>1.088691688253766</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>1.058831991216493</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>0.6000801603206414</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>1.235464231362458</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1764,31 +2004,37 @@
         <v>0.789</v>
       </c>
       <c r="D40">
+        <v>0.76</v>
+      </c>
+      <c r="E40">
         <v>0.6</v>
       </c>
-      <c r="E40">
+      <c r="F40">
+        <v>0.16</v>
+      </c>
+      <c r="G40">
         <v>0.8144861470896098</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>1.088691688253766</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>1.058831991216493</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>0.6000801603206414</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>1.235464231362458</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1799,31 +2045,37 @@
         <v>0.789</v>
       </c>
       <c r="D41">
+        <v>0.76</v>
+      </c>
+      <c r="E41">
         <v>0.6</v>
       </c>
-      <c r="E41">
+      <c r="F41">
+        <v>0.16</v>
+      </c>
+      <c r="G41">
         <v>0.8144861470896098</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>1.088691688253766</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>1.058831991216493</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>0.6000801603206414</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>1.235464231362458</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1834,31 +2086,37 @@
         <v>0.714</v>
       </c>
       <c r="D42">
+        <v>0.84</v>
+      </c>
+      <c r="E42">
         <v>0.6</v>
       </c>
-      <c r="E42">
+      <c r="F42">
+        <v>0.24</v>
+      </c>
+      <c r="G42">
         <v>0.9106019444615747</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>1.146361166676945</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>1.183782527800047</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.6001202404809618</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>1.310532095741487</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1869,31 +2127,37 @@
         <v>0.714</v>
       </c>
       <c r="D43">
+        <v>0.84</v>
+      </c>
+      <c r="E43">
         <v>0.6</v>
       </c>
-      <c r="E43">
+      <c r="F43">
+        <v>0.24</v>
+      </c>
+      <c r="G43">
         <v>0.9106019444615747</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>1.146361166676945</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>1.183782527800047</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>0.6001202404809618</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>1.310532095741487</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1904,31 +2168,37 @@
         <v>0.714</v>
       </c>
       <c r="D44">
+        <v>0.84</v>
+      </c>
+      <c r="E44">
         <v>0.6</v>
       </c>
-      <c r="E44">
+      <c r="F44">
+        <v>0.24</v>
+      </c>
+      <c r="G44">
         <v>0.9106019444615747</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>1.146361166676945</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>1.183782527800047</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>0.6001202404809618</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>1.310532095741487</v>
       </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1939,31 +2209,37 @@
         <v>0.714</v>
       </c>
       <c r="D45">
+        <v>0.84</v>
+      </c>
+      <c r="E45">
         <v>0.6</v>
       </c>
-      <c r="E45">
+      <c r="F45">
+        <v>0.24</v>
+      </c>
+      <c r="G45">
         <v>0.9106019444615747</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>1.146361166676945</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>1.183782527800047</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>0.6001202404809618</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>1.310532095741487</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1974,31 +2250,37 @@
         <v>0.652</v>
       </c>
       <c r="D46">
+        <v>0.92</v>
+      </c>
+      <c r="E46">
         <v>0.6</v>
       </c>
-      <c r="E46">
+      <c r="F46">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="G46">
         <v>1.004411342486901</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>1.202646805492141</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>1.305734745232971</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>0.6001202404809619</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>1.38371808979452</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2009,31 +2291,37 @@
         <v>0.652</v>
       </c>
       <c r="D47">
+        <v>0.92</v>
+      </c>
+      <c r="E47">
         <v>0.6</v>
       </c>
-      <c r="E47">
+      <c r="F47">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="G47">
         <v>1.004411342486901</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>1.202646805492141</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>1.305734745232971</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>0.6001202404809619</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>1.38371808979452</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2044,31 +2332,37 @@
         <v>0.652</v>
       </c>
       <c r="D48">
+        <v>0.92</v>
+      </c>
+      <c r="E48">
         <v>0.6</v>
       </c>
-      <c r="E48">
+      <c r="F48">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="G48">
         <v>1.004411342486901</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>1.202646805492141</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>1.305734745232971</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>0.6001202404809619</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>1.38371808979452</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2079,31 +2373,37 @@
         <v>0.652</v>
       </c>
       <c r="D49">
+        <v>0.92</v>
+      </c>
+      <c r="E49">
         <v>0.6</v>
       </c>
-      <c r="E49">
+      <c r="F49">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="G49">
         <v>1.004411342486901</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>1.202646805492141</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>1.305734745232971</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>0.6001202404809619</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>1.38371808979452</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2114,31 +2414,37 @@
         <v>0.952</v>
       </c>
       <c r="D50">
+        <v>0.84</v>
+      </c>
+      <c r="E50">
         <v>0.8</v>
       </c>
-      <c r="E50">
+      <c r="F50">
+        <v>0.03999999999999992</v>
+      </c>
+      <c r="G50">
         <v>0.6410422962528389</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>1.312833837002271</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>0.8333549851286907</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>0.8004408817635269</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>1.467492280881967</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2149,31 +2455,37 @@
         <v>0.952</v>
       </c>
       <c r="D51">
+        <v>0.84</v>
+      </c>
+      <c r="E51">
         <v>0.8</v>
       </c>
-      <c r="E51">
+      <c r="F51">
+        <v>0.03999999999999992</v>
+      </c>
+      <c r="G51">
         <v>0.6410422962528389</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>1.312833837002271</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>0.8333549851286907</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>0.8004408817635269</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>1.467492280881967</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2184,31 +2496,37 @@
         <v>0.952</v>
       </c>
       <c r="D52">
+        <v>0.84</v>
+      </c>
+      <c r="E52">
         <v>0.8</v>
       </c>
-      <c r="E52">
+      <c r="F52">
+        <v>0.03999999999999992</v>
+      </c>
+      <c r="G52">
         <v>0.6410422962528389</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>1.312833837002271</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.8333549851286907</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>0.8004408817635269</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>1.467492280881967</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2219,31 +2537,37 @@
         <v>0.952</v>
       </c>
       <c r="D53">
+        <v>0.84</v>
+      </c>
+      <c r="E53">
         <v>0.8</v>
       </c>
-      <c r="E53">
+      <c r="F53">
+        <v>0.03999999999999992</v>
+      </c>
+      <c r="G53">
         <v>0.6410422962528389</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>1.312833837002271</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>0.8333549851286907</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>0.8004408817635269</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>1.467492280881967</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2254,31 +2578,37 @@
         <v>0.909</v>
       </c>
       <c r="D54">
+        <v>0.88</v>
+      </c>
+      <c r="E54">
         <v>0.8</v>
       </c>
-      <c r="E54">
+      <c r="F54">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G54">
         <v>0.6842308303611848</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>1.347384664288948</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0.8895000794695402</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>0.8006412825651303</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>1.512811767033408</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2289,31 +2619,37 @@
         <v>0.909</v>
       </c>
       <c r="D55">
+        <v>0.88</v>
+      </c>
+      <c r="E55">
         <v>0.8</v>
       </c>
-      <c r="E55">
+      <c r="F55">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G55">
         <v>0.6842308303611848</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>1.347384664288948</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0.8895000794695402</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>0.8006412825651303</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>1.512811767033408</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2324,31 +2660,37 @@
         <v>0.909</v>
       </c>
       <c r="D56">
+        <v>0.88</v>
+      </c>
+      <c r="E56">
         <v>0.8</v>
       </c>
-      <c r="E56">
+      <c r="F56">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G56">
         <v>0.6842308303611848</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>1.347384664288948</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>0.8895000794695402</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>0.8006412825651303</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>1.512811767033408</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2359,31 +2701,37 @@
         <v>0.909</v>
       </c>
       <c r="D57">
+        <v>0.88</v>
+      </c>
+      <c r="E57">
         <v>0.8</v>
       </c>
-      <c r="E57">
+      <c r="F57">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="G57">
         <v>0.6842308303611848</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>1.347384664288948</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0.8895000794695402</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>0.8006412825651303</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>1.512811767033408</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2394,31 +2742,37 @@
         <v>0.87</v>
       </c>
       <c r="D58">
+        <v>0.92</v>
+      </c>
+      <c r="E58">
         <v>0.8</v>
       </c>
-      <c r="E58">
+      <c r="F58">
+        <v>0.12</v>
+      </c>
+      <c r="G58">
         <v>0.7244359908990576</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>1.379548792719246</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0.9417667881687749</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>0.8010821643286574</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>1.555514741287748</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2429,31 +2783,37 @@
         <v>0.87</v>
       </c>
       <c r="D59">
+        <v>0.92</v>
+      </c>
+      <c r="E59">
         <v>0.8</v>
       </c>
-      <c r="E59">
+      <c r="F59">
+        <v>0.12</v>
+      </c>
+      <c r="G59">
         <v>0.7244359908990576</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>1.379548792719246</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>0.9417667881687749</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>0.8010821643286574</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>1.555514741287748</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2464,31 +2824,37 @@
         <v>0.87</v>
       </c>
       <c r="D60">
+        <v>0.92</v>
+      </c>
+      <c r="E60">
         <v>0.8</v>
       </c>
-      <c r="E60">
+      <c r="F60">
+        <v>0.12</v>
+      </c>
+      <c r="G60">
         <v>0.7244359908990576</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>1.379548792719246</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.9417667881687749</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>0.8010821643286574</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>1.555514741287748</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2499,31 +2865,37 @@
         <v>0.87</v>
       </c>
       <c r="D61">
+        <v>0.92</v>
+      </c>
+      <c r="E61">
         <v>0.8</v>
       </c>
-      <c r="E61">
+      <c r="F61">
+        <v>0.12</v>
+      </c>
+      <c r="G61">
         <v>0.7244359908990576</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>1.379548792719246</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0.9417667881687749</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>0.8010821643286574</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>1.555514741287748</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2534,31 +2906,37 @@
         <v>0.833</v>
       </c>
       <c r="D62">
+        <v>0.96</v>
+      </c>
+      <c r="E62">
         <v>0.8</v>
       </c>
-      <c r="E62">
+      <c r="F62">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="G62">
         <v>0.7642339515157267</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>1.411387161212581</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>0.9935041369704447</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>0.8003206412825651</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>1.595442509299633</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2569,31 +2947,37 @@
         <v>0.833</v>
       </c>
       <c r="D63">
+        <v>0.96</v>
+      </c>
+      <c r="E63">
         <v>0.8</v>
       </c>
-      <c r="E63">
+      <c r="F63">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="G63">
         <v>0.7642339515157267</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>1.411387161212581</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>0.9935041369704447</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>0.8003206412825651</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>1.595442509299633</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2604,31 +2988,37 @@
         <v>0.833</v>
       </c>
       <c r="D64">
+        <v>0.96</v>
+      </c>
+      <c r="E64">
         <v>0.8</v>
       </c>
-      <c r="E64">
+      <c r="F64">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="G64">
         <v>0.7642339515157267</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>1.411387161212581</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>0.9935041369704447</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>0.8003206412825651</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>1.595442509299633</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2639,28 +3029,34 @@
         <v>0.833</v>
       </c>
       <c r="D65">
+        <v>0.96</v>
+      </c>
+      <c r="E65">
         <v>0.8</v>
       </c>
-      <c r="E65">
+      <c r="F65">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="G65">
         <v>0.7642339515157267</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>1.411387161212581</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>0.9935041369704447</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>0.8003206412825651</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>1.595442509299633</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
-        <v>11</v>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Test files/DD_Summary 2 col 5 sheme.xlsx
+++ b/Test files/DD_Summary 2 col 5 sheme.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Rmin Rwork Nwork" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphics" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -470,7 +469,7 @@
         <v>0.5098560912378058</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -511,7 +510,7 @@
         <v>0.5098560912378058</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -552,7 +551,7 @@
         <v>0.5098560912378058</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -593,7 +592,7 @@
         <v>0.5098560912378058</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -634,7 +633,7 @@
         <v>0.6581765781607494</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -675,7 +674,7 @@
         <v>0.6581765781607494</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -716,7 +715,7 @@
         <v>0.6581765781607494</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -757,7 +756,7 @@
         <v>0.6581765781607494</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -798,7 +797,7 @@
         <v>0.8103609340255278</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -839,7 +838,7 @@
         <v>0.8103609340255278</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -880,7 +879,7 @@
         <v>0.8103609340255278</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -921,7 +920,7 @@
         <v>0.8103609340255278</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -962,7 +961,7 @@
         <v>0.964859394775167</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
@@ -1003,7 +1002,7 @@
         <v>0.964859394775167</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
         <v>13</v>
@@ -1044,7 +1043,7 @@
         <v>0.964859394775167</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
@@ -1085,7 +1084,7 @@
         <v>0.964859394775167</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -1126,7 +1125,7 @@
         <v>0.8364347122408754</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
@@ -1167,7 +1166,7 @@
         <v>0.8364347122408754</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
@@ -1208,7 +1207,7 @@
         <v>0.8364347122408754</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
@@ -1249,7 +1248,7 @@
         <v>0.8364347122408754</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
         <v>13</v>
@@ -1290,7 +1289,7 @@
         <v>0.9467842422517007</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
         <v>13</v>
@@ -1331,7 +1330,7 @@
         <v>0.9467842422517007</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -1372,7 +1371,7 @@
         <v>0.9467842422517007</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
         <v>13</v>
@@ -1413,7 +1412,7 @@
         <v>0.9467842422517007</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
         <v>13</v>
@@ -1454,7 +1453,7 @@
         <v>1.055690796557974</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
         <v>13</v>
@@ -1495,7 +1494,7 @@
         <v>1.055690796557974</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
@@ -1536,7 +1535,7 @@
         <v>1.055690796557974</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
         <v>13</v>
@@ -1577,7 +1576,7 @@
         <v>1.055690796557974</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
         <v>13</v>
@@ -1618,7 +1617,7 @@
         <v>1.166741169992692</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M30" t="s">
         <v>13</v>
@@ -1659,7 +1658,7 @@
         <v>1.166741169992692</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
         <v>13</v>
@@ -1700,7 +1699,7 @@
         <v>1.166741169992692</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
         <v>13</v>
@@ -1741,7 +1740,7 @@
         <v>1.166741169992692</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
         <v>13</v>
@@ -1782,7 +1781,7 @@
         <v>1.155825818866952</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M34" t="s">
         <v>13</v>
@@ -1823,7 +1822,7 @@
         <v>1.155825818866952</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M35" t="s">
         <v>13</v>
@@ -1864,7 +1863,7 @@
         <v>1.155825818866952</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M36" t="s">
         <v>13</v>
@@ -1905,7 +1904,7 @@
         <v>1.155825818866952</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M37" t="s">
         <v>13</v>
@@ -1946,7 +1945,7 @@
         <v>1.235464231362458</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M38" t="s">
         <v>13</v>
@@ -1987,7 +1986,7 @@
         <v>1.235464231362458</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M39" t="s">
         <v>13</v>
@@ -2028,7 +2027,7 @@
         <v>1.235464231362458</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M40" t="s">
         <v>13</v>
@@ -2069,7 +2068,7 @@
         <v>1.235464231362458</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M41" t="s">
         <v>13</v>
@@ -2110,7 +2109,7 @@
         <v>1.310532095741487</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M42" t="s">
         <v>13</v>
@@ -2151,7 +2150,7 @@
         <v>1.310532095741487</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M43" t="s">
         <v>13</v>
@@ -2192,7 +2191,7 @@
         <v>1.310532095741487</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M44" t="s">
         <v>13</v>
@@ -2233,7 +2232,7 @@
         <v>1.310532095741487</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M45" t="s">
         <v>13</v>
@@ -2274,7 +2273,7 @@
         <v>1.38371808979452</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M46" t="s">
         <v>13</v>
@@ -2315,7 +2314,7 @@
         <v>1.38371808979452</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
         <v>13</v>
@@ -2356,7 +2355,7 @@
         <v>1.38371808979452</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M48" t="s">
         <v>13</v>
@@ -2397,7 +2396,7 @@
         <v>1.38371808979452</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M49" t="s">
         <v>13</v>
@@ -2438,7 +2437,7 @@
         <v>1.467492280881967</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M50" t="s">
         <v>13</v>
@@ -2479,7 +2478,7 @@
         <v>1.467492280881967</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M51" t="s">
         <v>13</v>
@@ -2520,7 +2519,7 @@
         <v>1.467492280881967</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M52" t="s">
         <v>13</v>
@@ -2561,7 +2560,7 @@
         <v>1.467492280881967</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M53" t="s">
         <v>13</v>
@@ -2602,7 +2601,7 @@
         <v>1.512811767033408</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M54" t="s">
         <v>13</v>
@@ -2643,7 +2642,7 @@
         <v>1.512811767033408</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M55" t="s">
         <v>13</v>
@@ -2684,7 +2683,7 @@
         <v>1.512811767033408</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M56" t="s">
         <v>13</v>
@@ -2725,7 +2724,7 @@
         <v>1.512811767033408</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M57" t="s">
         <v>13</v>
@@ -2766,7 +2765,7 @@
         <v>1.555514741287748</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M58" t="s">
         <v>13</v>
@@ -2807,7 +2806,7 @@
         <v>1.555514741287748</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M59" t="s">
         <v>13</v>
@@ -2848,7 +2847,7 @@
         <v>1.555514741287748</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M60" t="s">
         <v>13</v>
@@ -2889,7 +2888,7 @@
         <v>1.555514741287748</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M61" t="s">
         <v>13</v>
@@ -2930,7 +2929,7 @@
         <v>1.595442509299633</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M62" t="s">
         <v>13</v>
@@ -2971,7 +2970,7 @@
         <v>1.595442509299633</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M63" t="s">
         <v>13</v>
@@ -3012,7 +3011,7 @@
         <v>1.595442509299633</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M64" t="s">
         <v>13</v>
@@ -3053,7 +3052,7 @@
         <v>1.595442509299633</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="M65" t="s">
         <v>13</v>
@@ -3062,16 +3061,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>